--- a/va_facility_data_2025-02-20/Southwest Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southwest%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Southwest Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southwest%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R35135c510f6b4d0998b8d32404efdbe5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6e77d8f74a4841df9f23d099088d88a1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R02b31b499dec46a8b0d51fe2925ff9af"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb08f9fc66db446a387c83d883c3c8a4b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R200612664d694e0080ea6056fec730e4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R47c12be689e84116ad0fda74934a1ef3"/>
   </x:sheets>
 </x:workbook>
 </file>
